--- a/biology/Zoologie/Abronia_graminea/Abronia_graminea.xlsx
+++ b/biology/Zoologie/Abronia_graminea/Abronia_graminea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abronia graminea est une espèce de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abronia graminea est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre en Oaxaca, au Veracruz et au Puebla entre 1 350 et 2 743 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre en Oaxaca, au Veracruz et au Puebla entre 1 350 et 2 743 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce arboricole, comme tous les membres de son genre, vit dans la canopée parmi les broméliacées de la forêt tropicale humide[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce arboricole, comme tous les membres de son genre, vit dans la canopée parmi les broméliacées de la forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Abronia graminea est d'un vert lumineux tirant parfois sur le bleu. Il mesure une trentaine de centimètres de long et sa morphologie lui vaut d'être parfois appelé « lézard-crocodile ». Il possède une queue préhensile. Cette espèce est vivipare. Sa taille adulte est d'environ 25 cm.
 </t>
@@ -604,9 +622,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'UICN considère le lézard-alligator mexicain comme une espèce en danger. Le déclin de l'espèce est principalement dû à la fragmentation de l'habitat due aux incendies[3],[4],[5], à la déforestation et au changement d'utilisation des terres pour l'agriculture. Le trafic illégal pour le commerce d'animaux de compagnie a également contribué à l'état de cette espèce[6],[3],[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UICN considère le lézard-alligator mexicain comme une espèce en danger. Le déclin de l'espèce est principalement dû à la fragmentation de l'habitat due aux incendies à la déforestation et au changement d'utilisation des terres pour l'agriculture. Le trafic illégal pour le commerce d'animaux de compagnie a également contribué à l'état de cette espèce.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1864 : Contributions to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 16, p. 166-181 (texte intégral).</t>
         </is>
